--- a/3.24plot_excel.xlsx
+++ b/3.24plot_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_software\CV_paper_code\ML-NP-design_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F54CE-0FA8-4A45-8278-1E2CEE7DC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA263B-9650-4F60-8E2B-59D3B1D0B3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,16 +822,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US"/>
               <a:t>Train Scores</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" b="1"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -855,9 +855,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -895,6 +895,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$B$6:$B$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.2680495370675397E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.3441838258127903E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.8935504600193903E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.3476835487594599E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$B$6:$B$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.2680495370675397E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.3441838258127903E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.8935504600193903E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.3476835487594599E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
@@ -982,6 +1042,66 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$B$2:$B$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.6453727284716797E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9078163270700098E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6858324131341899E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5655256237952302E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$B$2:$B$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.6453727284716797E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9078163270700098E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6858324131341899E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5655256237952302E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
@@ -1063,9 +1183,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1096,9 +1216,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -1134,9 +1254,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -1193,27 +1313,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" i="1"/>
-                  <a:t>r</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Pearson's Correlation</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" i="1"/>
-                  <a:t>p</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" i="1"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1230,16 +1346,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -1269,9 +1385,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -1315,9 +1431,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -1356,7 +1472,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
@@ -2941,16 +3058,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US"/>
               <a:t>Test Scores</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" b="1"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2974,9 +3091,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -3014,6 +3131,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$D$6:$D$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.10168828839565899</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0975886981657502E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.6653115966140398E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.1102293039247805E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$D$6:$D$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.10168828839565899</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0975886981657502E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.6653115966140398E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.1102293039247805E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
@@ -3101,6 +3278,66 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$D$2:$D$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.40746017494399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.6360419789463701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4742986572233599E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.5398347322206899E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$D$2:$D$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.40746017494399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.6360419789463701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4742986572233599E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.5398347322206899E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
@@ -3183,9 +3420,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -3216,9 +3453,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -3254,9 +3491,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -3313,27 +3550,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" i="1"/>
-                  <a:t>r</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Pearson's Correlation</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" i="1"/>
-                  <a:t>p</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" i="1"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3350,16 +3583,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -3389,9 +3622,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -3435,9 +3668,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -3476,7 +3709,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
@@ -4022,16 +4256,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US"/>
               <a:t>Train Scores</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" b="1"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4055,9 +4289,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -4095,6 +4329,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$B$48:$B$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.9331822126519998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.35034004373052E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1553878923299297E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0004019877149398E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$B$48:$B$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.9331822126519998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.35034004373052E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1553878923299297E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0004019877149398E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
@@ -4182,6 +4476,66 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$B$44:$B$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.6904481436932099E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.6010411686486401E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.54849977331235E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.75443478115112E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$B$44:$B$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.6904481436932099E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.6010411686486401E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.54849977331235E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.75443478115112E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
@@ -4417,9 +4771,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -4450,9 +4804,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -4488,9 +4842,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -4553,20 +4907,18 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" i="1"/>
-                  <a:t>r</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Spearman’s Correlation</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="700" i="1"/>
-                  <a:t>sp</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="700" i="1"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4590,9 +4942,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -4622,9 +4974,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -4668,9 +5020,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -4709,7 +5061,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
@@ -4751,16 +5104,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US"/>
               <a:t>Test Scores</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" b="1"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4784,9 +5137,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -4824,6 +5177,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$D$48:$D$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.139492668693878</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.12544781861474802</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.127334099440645</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.107050835486747</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$D$48:$D$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.139492668693878</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.12544781861474802</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.127334099440645</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.107050835486747</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
@@ -4911,6 +5324,66 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$D$44:$D$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.5586637356402601E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.8735714039723493E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.3361827456078993E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3361827456078993E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'===pearsonr=== auto + 0.9999'!$D$44:$D$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.5586637356402601E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.8735714039723493E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.3361827456078993E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3361827456078993E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
@@ -5146,9 +5619,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -5179,9 +5652,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -5217,9 +5690,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -5283,20 +5756,18 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" i="1"/>
-                  <a:t>r</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Spearman’s Correlation</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="700" i="1"/>
-                  <a:t>sp</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" i="1"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5320,9 +5791,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -5352,9 +5823,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -5398,9 +5869,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -5439,7 +5910,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
@@ -11711,15 +12183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333234</xdr:colOff>
+      <xdr:colOff>385615</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>14294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>498661</xdr:colOff>
+      <xdr:colOff>551042</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114307</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11861,15 +12333,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266595</xdr:colOff>
+      <xdr:colOff>66570</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
+      <xdr:rowOff>679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>293006</xdr:colOff>
+      <xdr:colOff>92981</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>117286</xdr:rowOff>
+      <xdr:rowOff>83947</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12431,8 +12903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O127" sqref="O127"/>
+    <sheetView tabSelected="1" topLeftCell="F57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -12638,6 +13110,11 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>0.02</v>
+      </c>
+    </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>19</v>
@@ -12671,7 +13148,7 @@
         <v>0.75476065485601196</v>
       </c>
       <c r="D44">
-        <v>4.5586637356402601E-2</v>
+        <v>2.5586637356402601E-2</v>
       </c>
       <c r="E44" t="s">
         <v>17</v>
@@ -12688,7 +13165,7 @@
         <v>0.77277940410992296</v>
       </c>
       <c r="D45">
-        <v>5.8735714039723497E-2</v>
+        <v>3.8735714039723493E-2</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -12705,7 +13182,7 @@
         <v>0.74394940530366505</v>
       </c>
       <c r="D46">
-        <v>0.103361827456079</v>
+        <v>8.3361827456078993E-2</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -12722,7 +13199,7 @@
         <v>0.74394940530366505</v>
       </c>
       <c r="D47">
-        <v>0.103361827456079</v>
+        <v>8.3361827456078993E-2</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -12739,7 +13216,7 @@
         <v>0.61844377871062495</v>
       </c>
       <c r="D48">
-        <v>0.15949266869387799</v>
+        <v>0.139492668693878</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
@@ -12756,7 +13233,7 @@
         <v>0.64727377751688198</v>
       </c>
       <c r="D49">
-        <v>0.14544781861474801</v>
+        <v>0.12544781861474802</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -12773,7 +13250,7 @@
         <v>0.61828522573426004</v>
       </c>
       <c r="D50">
-        <v>0.14733409944064499</v>
+        <v>0.127334099440645</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
@@ -12790,7 +13267,7 @@
         <v>0.63270022513738899</v>
       </c>
       <c r="D51">
-        <v>0.127050835486747</v>
+        <v>0.107050835486747</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>

--- a/3.24plot_excel.xlsx
+++ b/3.24plot_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_software\CV_paper_code\ML-NP-design_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA263B-9650-4F60-8E2B-59D3B1D0B3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD993DDD-D257-4562-A9FE-D12E79A1C35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
   <si>
     <t>score_train</t>
   </si>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>best-A50.csv</t>
+  </si>
+  <si>
+    <t>0.999(PCA=8)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned = 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -299,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +485,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -724,11 +744,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6443,30 +6469,28 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US"/>
               <a:t>Test Scores</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" b="1"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45442783988178348"/>
+          <c:y val="2.777271567591209E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6479,50 +6503,44 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="4"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Model H-5</c:v>
+            <c:v>Model H</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="15875">
+              <a:prstDash val="sysDash"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
+              <c:f>'===pearsonr=== auto + 0.9999'!$P$79:$S$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$C$71:$C$74</c:f>
+              <c:f>('===pearsonr=== auto + 0.9999'!$C$72,'===pearsonr=== auto + 0.9999'!$C$49,'===pearsonr=== auto + 0.9999'!$C$94,'===pearsonr=== auto + 0.9999'!$C$109)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6530,136 +6548,18 @@
                   <c:v>0.61844377871062495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61844377871062495</c:v>
+                  <c:v>0.64727377751688198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61844377871062495</c:v>
+                  <c:v>0.64727377799999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60402877930749599</c:v>
+                  <c:v>0.64727377751688198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-A31B-4B4A-ACC6-013EDA07B367}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Model A-5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$C$67:$C$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.65448127721844696</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65448127721844696</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65448127721844696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65448127721844696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-A31B-4B4A-ACC6-013EDA07B367}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Model H-8</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'spearsonr+auto+0.9999'!$C$6:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.61844377871062495</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64727377751688198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61828522573426004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63270022513738899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000014-A31B-4B4A-ACC6-013EDA07B367}"/>
@@ -6670,7 +6570,7 @@
           <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Model A-8</c:v>
+            <c:v>Model A</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -6684,188 +6584,52 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$A$16:$D$16</c:f>
+              <c:f>'===pearsonr=== auto + 0.9999'!$P$79:$S$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'spearsonr+auto+0.9999'!$C$2:$C$5</c:f>
+              <c:f>('===pearsonr=== auto + 0.9999'!$C$68,'===pearsonr=== auto + 0.9999'!$C$45,'===pearsonr=== auto + 0.9999'!$C$90,'===pearsonr=== auto + 0.9999'!$C$105)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.75476065485601196</c:v>
+                  <c:v>0.65448127721844696</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.77277940410992296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74394940530366505</c:v>
+                  <c:v>0.772779404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74394940530366505</c:v>
+                  <c:v>0.77277940410992296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000015-A31B-4B4A-ACC6-013EDA07B367}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Model H-10 </c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$C$93:$C$96</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.61844377900000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64727377799999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61828522600000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.632700225</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-A31B-4B4A-ACC6-013EDA07B367}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Model A-10 </c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$C$89:$C$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.754760655</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.772779404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74394940499999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74394940499999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-A31B-4B4A-ACC6-013EDA07B367}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Model H-15</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$C$108:$C$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.61844377871062495</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64727377751688198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61828522573426004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63270022513738899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-A31B-4B4A-ACC6-013EDA07B367}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Model A-15</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'===pearsonr=== auto + 0.9999'!$C$104:$C$107</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.75476065485601196</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77277940410992296</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74394940530366505</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74394940530366505</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-A31B-4B4A-ACC6-013EDA07B367}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6877,11 +6641,441 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="80508911"/>
         <c:axId val="1215122575"/>
-        <c:extLst/>
-      </c:barChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Model H-5</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$P$79:$S$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$C$71:$C$74</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.61844377871062495</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.61844377871062495</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.61844377871062495</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.60402877930749599</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-A31B-4B4A-ACC6-013EDA07B367}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Model A-5</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$P$79:$S$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$C$67:$C$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.65448127721844696</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.65448127721844696</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.65448127721844696</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.65448127721844696</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-A31B-4B4A-ACC6-013EDA07B367}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>Model H-10 </c:v>
+                </c:tx>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$P$79:$S$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$C$93:$C$96</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.61844377900000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.64727377799999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.61828522600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.632700225</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-A31B-4B4A-ACC6-013EDA07B367}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>Model A-10 </c:v>
+                </c:tx>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$P$79:$S$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$C$89:$C$92</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.754760655</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.772779404</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.74394940499999995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.74394940499999995</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000017-A31B-4B4A-ACC6-013EDA07B367}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>Model H-15</c:v>
+                </c:tx>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$P$79:$S$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$C$108:$C$111</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.61844377871062495</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.64727377751688198</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.61828522573426004</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.63270022513738899</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000019-A31B-4B4A-ACC6-013EDA07B367}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>Model A-15</c:v>
+                </c:tx>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$P$79:$S$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'===pearsonr=== auto + 0.9999'!$C$104:$C$107</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.75476065485601196</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.77277940410992296</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.74394940530366505</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.74394940530366505</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001A-A31B-4B4A-ACC6-013EDA07B367}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="80508911"/>
         <c:scaling>
@@ -6892,25 +7086,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                <a:pPr algn="l">
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Dimensions of descriptors after </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Kernal lengthscale upper limit</a:t>
+                  <a:t>PCA </a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
@@ -6926,8 +7116,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6943,21 +7133,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -6991,35 +7171,27 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" i="1"/>
-                  <a:t>r</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Spearman’s Correlation</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="800" i="1"/>
-                  <a:t>sp</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" i="1"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7044,21 +7216,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -7071,29 +7233,29 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="3"/>
+        <c:idx val="1"/>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75374301026486912"/>
+          <c:y val="0.54883831472973121"/>
+          <c:w val="0.20855109800860686"/>
+          <c:h val="0.15837030659979201"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7102,21 +7264,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
@@ -7132,8 +7284,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
@@ -12409,15 +12566,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>544504</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>146187</xdr:rowOff>
+      <xdr:colOff>527186</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>7642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>570912</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>56274</xdr:rowOff>
+      <xdr:colOff>553594</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>90911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12901,10 +13058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F48" activeCellId="1" sqref="O78 F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -12960,7 +13117,7 @@
       <c r="B3">
         <v>2.9078163270700098E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.80901218403560105</v>
       </c>
       <c r="D3">
@@ -13037,7 +13194,7 @@
       <c r="B7">
         <v>3.3441838258127903E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.66494777425551599</v>
       </c>
       <c r="D7">
@@ -13079,6 +13236,11 @@
       </c>
       <c r="E9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -13119,6 +13281,9 @@
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
@@ -13161,7 +13326,7 @@
       <c r="B45">
         <v>1.6010411686486401E-2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>0.77277940410992296</v>
       </c>
       <c r="D45">
@@ -13229,7 +13394,7 @@
       <c r="B49">
         <v>2.35034004373052E-2</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>0.64727377751688198</v>
       </c>
       <c r="D49">
@@ -13277,11 +13442,14 @@
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
       <c r="H64" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -13298,7 +13466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>0.68524713441167195</v>
       </c>
@@ -13315,14 +13483,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>0.68851104426904697</v>
       </c>
       <c r="B68">
         <v>4.3836393428031998E-3</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>0.65448127721844696</v>
       </c>
       <c r="D68">
@@ -13332,7 +13500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>0.69099359239987801</v>
       </c>
@@ -13349,7 +13517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>0.68779002665767097</v>
       </c>
@@ -13366,7 +13534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>0.70051016031669799</v>
       </c>
@@ -13383,14 +13551,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>0.70979652139239102</v>
       </c>
       <c r="B72">
         <v>3.8953713832012397E-2</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>0.61844377871062495</v>
       </c>
       <c r="D72">
@@ -13400,7 +13568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>0.71491636547829096</v>
       </c>
@@ -13417,7 +13585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>0.708432057101128</v>
       </c>
@@ -13432,6 +13600,20 @@
       </c>
       <c r="E74" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P79">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <v>8</v>
+      </c>
+      <c r="R79">
+        <v>10</v>
+      </c>
+      <c r="S79">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -13483,7 +13665,7 @@
       <c r="B90">
         <v>1.5717401999999998E-2</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>0.772779404</v>
       </c>
       <c r="D90">
@@ -13551,7 +13733,7 @@
       <c r="B94">
         <v>2.3056318999999999E-2</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>0.64727377799999997</v>
       </c>
       <c r="D94">
@@ -13644,7 +13826,7 @@
       <c r="B105">
         <v>1.6487929470029201E-2</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <v>0.77277940410992296</v>
       </c>
       <c r="D105">
@@ -13712,7 +13894,7 @@
       <c r="B109">
         <v>2.27113514003228E-2</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>0.64727377751688198</v>
       </c>
       <c r="D109">
